--- a/inputs/Baseline_frst2Xmort_fire.xlsx
+++ b/inputs/Baseline_frst2Xmort_fire.xlsx
@@ -341,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
